--- a/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-DPQ.xlsx
+++ b/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-DPQ.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -328,24 +328,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,91 +365,197 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -461,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -471,13 +581,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -493,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -503,16 +613,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -528,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -538,25 +648,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -572,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -582,51 +692,51 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -642,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -652,820 +762,820 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="F3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="F7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1483,133 +1593,133 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
     </row>

--- a/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-DPQ.xlsx
+++ b/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-DPQ.xlsx
@@ -5,16 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -365,124 +365,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
@@ -571,7 +465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -581,7 +475,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -603,7 +497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -613,7 +507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -638,7 +532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -648,7 +542,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -682,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -692,7 +586,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.51"/>
@@ -752,17 +646,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
@@ -1593,24 +1487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.16"/>
